--- a/data/preprocessed/video/S2_pitch.xlsx
+++ b/data/preprocessed/video/S2_pitch.xlsx
@@ -27692,7 +27692,7 @@
         <v>0.01495937581903591</v>
       </c>
       <c r="E148" t="n">
-        <v>0.06741799560492732</v>
+        <v>0.06733735206951473</v>
       </c>
       <c r="F148" t="n">
         <v>0.03965645853914235</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="BA148" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB148" t="n">
         <v>0</v>
